--- a/med/service/files/service.xlsx
+++ b/med/service/files/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UVUStudentLoaner\Desktop\REPOs\personal\pbischoff3.github.io\Hours\service\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbisc\Desktop\REPOs\personal\pbischoff3.github.io\med\service\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D77CDC7-E9F4-4EB2-9B4D-C0FB74F938B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762AAB8A-20B9-405B-8ECD-54519DBBD500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D2F0FB2-7D8F-4678-8B0A-0320E5E0FB7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3D2F0FB2-7D8F-4678-8B0A-0320E5E0FB7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
